--- a/src/main/resources/xlsfile/data.xlsx
+++ b/src/main/resources/xlsfile/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051219B1-B53D-464D-A3D3-CFBC5461FEAC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F3BAB-306E-400B-B09D-8E524A6C90DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="3" r:id="rId1"/>
@@ -43,133 +43,134 @@
     <t>hello</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>imageLocation</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>p0001</t>
+  </si>
+  <si>
+    <t>p0002</t>
+  </si>
+  <si>
+    <t>p0003</t>
+  </si>
+  <si>
+    <t>p0004</t>
+  </si>
+  <si>
+    <t>p0005</t>
+  </si>
+  <si>
+    <t>garden.jpg</t>
+  </si>
+  <si>
+    <t>banana.jpg</t>
+  </si>
+  <si>
+    <t>orange.jpg</t>
+  </si>
+  <si>
+    <t>papaya.jpg</t>
+  </si>
+  <si>
+    <t>rambutan.jpg</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>The garden which you can grow everything on earth</t>
+  </si>
+  <si>
+    <t>A good fruit with very cheap price</t>
+  </si>
+  <si>
+    <t>Nothing good about it</t>
+  </si>
+  <si>
+    <t>Use for papaya salad</t>
+  </si>
+  <si>
+    <t>An expensive fruit from the sout</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>ProductId</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>t001</t>
+  </si>
+  <si>
+    <t>t002</t>
+  </si>
+  <si>
+    <t>t003</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>t004</t>
+  </si>
+  <si>
+    <t>t005</t>
+  </si>
+  <si>
+    <t>t006</t>
+  </si>
+  <si>
+    <t>SaleOrderId</t>
+  </si>
+  <si>
+    <t>SaleTransactoin</t>
+  </si>
+  <si>
+    <t>o001</t>
+  </si>
+  <si>
+    <t>o002</t>
+  </si>
+  <si>
+    <t>t001,t002</t>
+  </si>
+  <si>
+    <t>p0006</t>
+  </si>
+  <si>
+    <t>Unknow</t>
+  </si>
+  <si>
+    <t>Don't use this</t>
+  </si>
+  <si>
+    <t>t003,t004,t005,t006</t>
+  </si>
+  <si>
     <t>productId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>imageLocation</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>p0001</t>
-  </si>
-  <si>
-    <t>p0002</t>
-  </si>
-  <si>
-    <t>p0003</t>
-  </si>
-  <si>
-    <t>p0004</t>
-  </si>
-  <si>
-    <t>p0005</t>
-  </si>
-  <si>
-    <t>garden.jpg</t>
-  </si>
-  <si>
-    <t>banana.jpg</t>
-  </si>
-  <si>
-    <t>orange.jpg</t>
-  </si>
-  <si>
-    <t>papaya.jpg</t>
-  </si>
-  <si>
-    <t>rambutan.jpg</t>
-  </si>
-  <si>
-    <t>Garden</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>The garden which you can grow everything on earth</t>
-  </si>
-  <si>
-    <t>A good fruit with very cheap price</t>
-  </si>
-  <si>
-    <t>Nothing good about it</t>
-  </si>
-  <si>
-    <t>Use for papaya salad</t>
-  </si>
-  <si>
-    <t>An expensive fruit from the sout</t>
-  </si>
-  <si>
-    <t>transactionId</t>
-  </si>
-  <si>
-    <t>ProductId</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>t001</t>
-  </si>
-  <si>
-    <t>t002</t>
-  </si>
-  <si>
-    <t>t003</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>t004</t>
-  </si>
-  <si>
-    <t>t005</t>
-  </si>
-  <si>
-    <t>t006</t>
-  </si>
-  <si>
-    <t>SaleOrderId</t>
-  </si>
-  <si>
-    <t>SaleTransactoin</t>
-  </si>
-  <si>
-    <t>o001</t>
-  </si>
-  <si>
-    <t>o002</t>
-  </si>
-  <si>
-    <t>t001,t002</t>
-  </si>
-  <si>
-    <t>p0006</t>
-  </si>
-  <si>
-    <t>Unknow</t>
-  </si>
-  <si>
-    <t>Don't use this</t>
-  </si>
-  <si>
-    <t>t003,t004,t005,t006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -177,21 +178,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,15 +222,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -277,7 +285,7 @@
     <tableColumn id="2" xr3:uid="{85BFE5BF-A718-4639-B784-3A9E3DF9453C}" name="name"/>
     <tableColumn id="3" xr3:uid="{658925E2-0413-49B0-ADC4-9893E7094EBE}" name="description"/>
     <tableColumn id="4" xr3:uid="{19E76E9F-2D9C-4924-B711-72CEAB2874EB}" name="imageLocation"/>
-    <tableColumn id="5" xr3:uid="{CCA0166F-DFB0-427F-9264-7796610873AF}" name="price" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{CCA0166F-DFB0-427F-9264-7796610873AF}" name="price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,13 +572,13 @@
       <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -581,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -592,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -603,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -615,6 +623,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -627,140 +636,141 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -772,94 +782,95 @@
   <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -872,39 +883,40 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>